--- a/relatorios/repasses_liberados/dentistas/43133512803/2023-08-25_relatorio_repasses_43133512803.xlsx
+++ b/relatorios/repasses_liberados/dentistas/43133512803/2023-08-25_relatorio_repasses_43133512803.xlsx
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N2">
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/43133512803/2023-08-25_relatorio_repasses_43133512803.xlsx
+++ b/relatorios/repasses_liberados/dentistas/43133512803/2023-08-25_relatorio_repasses_43133512803.xlsx
@@ -644,7 +644,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -996,7 +996,7 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1040,7 +1040,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1084,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1172,7 +1172,7 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N16">
         <v>0</v>
